--- a/WD_EEPROM信息定义.xlsx
+++ b/WD_EEPROM信息定义.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="13680" windowHeight="5160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="13680" windowHeight="5160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="万东" sheetId="1" r:id="rId1"/>
@@ -1374,6 +1374,21 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1398,23 +1413,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1756,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E14"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1823,7 +1823,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -1837,7 +1837,7 @@
       <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="53" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="30" t="s">
@@ -1869,7 +1869,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="21" t="str">
         <f t="shared" ref="B4:B32" si="1">DEC2HEX(HEX2DEC(C3)+1,2)</f>
         <v>02</v>
@@ -1881,7 +1881,7 @@
       <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="28" t="s">
         <v>42</v>
       </c>
@@ -1911,7 +1911,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="20" t="str">
         <f t="shared" si="1"/>
         <v>03</v>
@@ -1923,7 +1923,7 @@
       <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="50"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="29" t="s">
         <v>53</v>
       </c>
@@ -1953,7 +1953,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="16" t="str">
         <f t="shared" si="1"/>
         <v>05</v>
@@ -1965,7 +1965,7 @@
       <c r="D6" s="15">
         <v>2</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="46" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="14" t="s">
@@ -1997,7 +1997,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="21" t="str">
         <f t="shared" si="1"/>
         <v>07</v>
@@ -2009,7 +2009,7 @@
       <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E7" s="52"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="8" t="s">
         <v>2</v>
       </c>
@@ -2039,7 +2039,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="45"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="20" t="str">
         <f t="shared" si="1"/>
         <v>08</v>
@@ -2051,7 +2051,7 @@
       <c r="D8" s="3">
         <v>8</v>
       </c>
-      <c r="E8" s="53"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="16" t="str">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2089,7 +2089,7 @@
       <c r="D9" s="15">
         <v>2</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="46" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -2121,7 +2121,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="21" t="str">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2133,7 +2133,7 @@
       <c r="D10" s="9">
         <v>1</v>
       </c>
-      <c r="E10" s="52"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="8" t="s">
         <v>2</v>
       </c>
@@ -2163,7 +2163,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="45"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="20" t="str">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2175,7 +2175,7 @@
       <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="2" t="s">
         <v>34</v>
       </c>
@@ -2205,7 +2205,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="16" t="str">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2217,7 +2217,7 @@
       <c r="D12" s="15">
         <v>2</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="46" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="14" t="s">
@@ -2249,7 +2249,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="21" t="str">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -2261,7 +2261,7 @@
       <c r="D13" s="9">
         <v>1</v>
       </c>
-      <c r="E13" s="52"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="28" t="s">
         <v>29</v>
       </c>
@@ -2291,7 +2291,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="45"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="20" t="str">
         <f t="shared" si="1"/>
         <v>1A</v>
@@ -2303,7 +2303,7 @@
       <c r="D14" s="3">
         <v>25</v>
       </c>
-      <c r="E14" s="53"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2333,7 +2333,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="11" t="str">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -2345,7 +2345,7 @@
       <c r="D15" s="10">
         <v>2</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="56" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="19" t="s">
@@ -2377,7 +2377,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="21" t="str">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -2389,7 +2389,7 @@
       <c r="D16" s="9">
         <v>1</v>
       </c>
-      <c r="E16" s="52"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="8" t="s">
         <v>2</v>
       </c>
@@ -2419,7 +2419,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="45"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="27" t="str">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -2431,7 +2431,7 @@
       <c r="D17" s="25">
         <v>2</v>
       </c>
-      <c r="E17" s="55"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="24" t="s">
         <v>24</v>
       </c>
@@ -2461,7 +2461,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="16" t="str">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -2473,7 +2473,7 @@
       <c r="D18" s="15">
         <v>2</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="46" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="22" t="s">
@@ -2505,7 +2505,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="21" t="str">
         <f t="shared" si="1"/>
         <v>3A</v>
@@ -2517,7 +2517,7 @@
       <c r="D19" s="9">
         <v>1</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="8" t="s">
         <v>2</v>
       </c>
@@ -2547,7 +2547,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="46"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="20" t="str">
         <f t="shared" si="1"/>
         <v>3B</v>
@@ -2559,7 +2559,7 @@
       <c r="D20" s="3">
         <v>4</v>
       </c>
-      <c r="E20" s="53"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="2" t="s">
         <v>20</v>
       </c>
@@ -2589,7 +2589,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="11" t="str">
         <f t="shared" si="1"/>
         <v>3F</v>
@@ -2601,7 +2601,7 @@
       <c r="D21" s="10">
         <v>2</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="56" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="19" t="s">
@@ -2633,7 +2633,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="11" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2645,7 +2645,7 @@
       <c r="D22" s="9">
         <v>1</v>
       </c>
-      <c r="E22" s="52"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="8" t="s">
         <v>2</v>
       </c>
@@ -2675,7 +2675,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="47"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="5" t="str">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2687,7 +2687,7 @@
       <c r="D23" s="3">
         <v>8</v>
       </c>
-      <c r="E23" s="53"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
@@ -2717,7 +2717,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="16" t="str">
         <f t="shared" si="1"/>
         <v>4A</v>
@@ -2729,7 +2729,7 @@
       <c r="D24" s="15">
         <v>2</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="46" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="14" t="s">
@@ -2761,7 +2761,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="11" t="str">
         <f t="shared" si="1"/>
         <v>4C</v>
@@ -2773,7 +2773,7 @@
       <c r="D25" s="9">
         <v>1</v>
       </c>
-      <c r="E25" s="52"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="8" t="s">
         <v>2</v>
       </c>
@@ -2803,7 +2803,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="47"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="5" t="str">
         <f t="shared" si="1"/>
         <v>4D</v>
@@ -2815,7 +2815,7 @@
       <c r="D26" s="3">
         <v>30</v>
       </c>
-      <c r="E26" s="53"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="2" t="s">
         <v>12</v>
       </c>
@@ -2857,7 +2857,7 @@
       <c r="D27" s="15">
         <v>2</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="46" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="14" t="s">
@@ -2901,7 +2901,7 @@
       <c r="D28" s="9">
         <v>1</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="8" t="s">
         <v>2</v>
       </c>
@@ -2943,7 +2943,7 @@
       <c r="D29" s="3">
         <v>8</v>
       </c>
-      <c r="E29" s="53"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="2" t="s">
         <v>7</v>
       </c>
@@ -2985,7 +2985,7 @@
       <c r="D30" s="15">
         <v>2</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="46" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="14" t="s">
@@ -3029,7 +3029,7 @@
       <c r="D31" s="9">
         <v>1</v>
       </c>
-      <c r="E31" s="52"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="8" t="s">
         <v>2</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="D32" s="3">
         <v>2</v>
       </c>
-      <c r="E32" s="53"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="2" t="s">
         <v>1</v>
       </c>
@@ -3629,11 +3629,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
     <mergeCell ref="A3:A20"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="E3:E5"/>
@@ -3641,6 +3636,11 @@
     <mergeCell ref="E24:E26"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="1.19" top="0.28000000000000003" bottom="0.4" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3668,7 +3668,7 @@
       <c r="A1" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C1" s="41" t="s">
@@ -3827,15 +3827,15 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="56"/>
+      <c r="B14" s="44"/>
       <c r="C14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="56"/>
+      <c r="B15" s="44"/>
       <c r="C15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="56">
+      <c r="B16" s="44">
         <v>8117</v>
       </c>
       <c r="C16" t="s">
@@ -3843,7 +3843,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="56">
+      <c r="B17" s="44">
         <v>8118</v>
       </c>
       <c r="C17" t="s">
@@ -3851,7 +3851,7 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="56">
+      <c r="B18" s="44">
         <v>8119</v>
       </c>
       <c r="C18" t="s">
@@ -3859,7 +3859,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="56">
+      <c r="B19" s="44">
         <v>8121</v>
       </c>
       <c r="C19" t="s">
@@ -3867,7 +3867,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="56">
+      <c r="B20" s="44">
         <v>8122</v>
       </c>
       <c r="C20" t="s">
@@ -3883,7 +3883,7 @@
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="56">
+      <c r="B23" s="44">
         <v>8306</v>
       </c>
       <c r="C23" t="s">
@@ -3891,7 +3891,7 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="56">
+      <c r="B24" s="44">
         <v>8307</v>
       </c>
       <c r="C24" t="s">
@@ -3899,7 +3899,7 @@
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="56">
+      <c r="B25" s="44">
         <v>8317</v>
       </c>
       <c r="C25" t="s">
@@ -3907,7 +3907,7 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="56">
+      <c r="B26" s="44">
         <v>8321</v>
       </c>
       <c r="C26" t="s">
@@ -3915,7 +3915,7 @@
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="56">
+      <c r="B27" s="44">
         <v>8323</v>
       </c>
       <c r="C27" t="s">
